--- a/biology/Zoologie/Galvanotropisme/Galvanotropisme.xlsx
+++ b/biology/Zoologie/Galvanotropisme/Galvanotropisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le galvanotropisme est la réaction d'orientation d'un animal (galvanotaxie) ou d'un organe soumis à l'action d'un courant électrique.
 On parle de galvanotropisme positif quand l'animal est attiré par l'électrode positive (ou anode) et négatif quand le déplacement se fait vers la cathode.
@@ -512,7 +524,9 @@
           <t>Galvanotropisme et pêche électrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La découverte de comportements galvanotropiques chez les poissons est à la base de la pêche électrique. 
 Cette méthode consiste à injecter dans l'eau, au moyen d'un groupe électrogène ou d'une batterie, un courant continu, ce qui crée un champ électrique. 
@@ -546,7 +560,9 @@
           <t>Chez les végétaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1882 Elfving montre que les racines peuvent être préférentiellement attirées par l'anode ou la cathode.
 </t>
